--- a/results/mp/logistic/corona/confidence/84/stop-words-topk-desired-masking-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/stop-words-topk-desired-masking-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="74">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,10 +49,22 @@
     <t>die</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>fraud</t>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>recession</t>
   </si>
   <si>
     <t>falling</t>
@@ -64,42 +76,39 @@
     <t>panic</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>shit</t>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>low</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>avoid</t>
   </si>
   <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
+    <t>fight</t>
+  </si>
+  <si>
     <t>empty</t>
   </si>
   <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
     <t>risk</t>
   </si>
   <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -109,6 +118,9 @@
     <t>oil</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -121,97 +133,109 @@
     <t>best</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>confidence</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>gt</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>better</t>
+    <t>safety</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>please</t>
+    <t>care</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>important</t>
+    <t>give</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>data</t>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>keep</t>
   </si>
 </sst>
 </file>
@@ -569,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -577,10 +601,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -638,28 +662,28 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9473684210526315</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="C3">
+        <v>37</v>
+      </c>
+      <c r="D3">
+        <v>37</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="D3">
-        <v>36</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -709,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K4">
         <v>0.95</v>
@@ -738,13 +762,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8648648648648649</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="C5">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -756,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K5">
         <v>0.9491525423728814</v>
@@ -788,13 +812,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.863013698630137</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C6">
-        <v>252</v>
+        <v>32</v>
       </c>
       <c r="D6">
-        <v>252</v>
+        <v>32</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -806,19 +830,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K6">
-        <v>0.9216710182767625</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L6">
-        <v>353</v>
+        <v>30</v>
       </c>
       <c r="M6">
-        <v>353</v>
+        <v>30</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -830,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -838,13 +862,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8611111111111112</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C7">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -856,19 +880,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K7">
-        <v>0.8984375</v>
+        <v>0.9086161879895561</v>
       </c>
       <c r="L7">
-        <v>115</v>
+        <v>348</v>
       </c>
       <c r="M7">
-        <v>115</v>
+        <v>348</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -880,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -888,13 +912,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>0.8527397260273972</v>
       </c>
       <c r="C8">
-        <v>32</v>
+        <v>249</v>
       </c>
       <c r="D8">
-        <v>32</v>
+        <v>249</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -906,19 +930,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K8">
-        <v>0.8962264150943396</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="L8">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="M8">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -930,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -938,13 +962,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7647058823529411</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C9">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -956,31 +980,31 @@
         <v>0</v>
       </c>
       <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9">
+        <v>0.90625</v>
+      </c>
+      <c r="L9">
+        <v>116</v>
+      </c>
+      <c r="M9">
+        <v>116</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>12</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K9">
-        <v>0.8943661971830986</v>
-      </c>
-      <c r="L9">
-        <v>127</v>
-      </c>
-      <c r="M9">
-        <v>127</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -988,13 +1012,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7286821705426356</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="C10">
-        <v>376</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>376</v>
+        <v>32</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1006,19 +1030,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>140</v>
+        <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K10">
-        <v>0.8936170212765957</v>
+        <v>0.9017857142857143</v>
       </c>
       <c r="L10">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="M10">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1030,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1038,13 +1062,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.717948717948718</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="C11">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D11">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1056,19 +1080,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K11">
-        <v>0.8928571428571429</v>
+        <v>0.8943661971830986</v>
       </c>
       <c r="L11">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="M11">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1080,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1088,13 +1112,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.717948717948718</v>
+        <v>0.8</v>
       </c>
       <c r="C12">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D12">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1106,19 +1130,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K12">
-        <v>0.8837209302325582</v>
+        <v>0.8936170212765957</v>
       </c>
       <c r="L12">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M12">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1138,13 +1162,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.708994708994709</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="C13">
-        <v>134</v>
+        <v>38</v>
       </c>
       <c r="D13">
-        <v>134</v>
+        <v>38</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1156,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K13">
-        <v>0.8787878787878788</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="L13">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="M13">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1180,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1188,13 +1212,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6949152542372882</v>
+        <v>0.7344961240310077</v>
       </c>
       <c r="C14">
-        <v>41</v>
+        <v>379</v>
       </c>
       <c r="D14">
-        <v>41</v>
+        <v>379</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1206,10 +1230,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>18</v>
+        <v>137</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K14">
         <v>0.86875</v>
@@ -1238,13 +1262,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6442953020134228</v>
+        <v>0.6949152542372882</v>
       </c>
       <c r="C15">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="D15">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1256,19 +1280,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K15">
-        <v>0.8658536585365854</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L15">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="M15">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1280,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1288,13 +1312,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6181818181818182</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="C16">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D16">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1306,19 +1330,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K16">
-        <v>0.8620689655172413</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L16">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="M16">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1330,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1338,13 +1362,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5600000000000001</v>
+        <v>0.6577181208053692</v>
       </c>
       <c r="C17">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="D17">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1356,19 +1380,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K17">
-        <v>0.8055555555555556</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="L17">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="M17">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1380,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1388,13 +1412,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5444444444444444</v>
+        <v>0.656084656084656</v>
       </c>
       <c r="C18">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="D18">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1406,19 +1430,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K18">
-        <v>0.7916666666666666</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="L18">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="M18">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1430,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1438,13 +1462,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.509090909090909</v>
+        <v>0.6181818181818182</v>
       </c>
       <c r="C19">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D19">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1456,19 +1480,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K19">
-        <v>0.7777777777777778</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L19">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="M19">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1480,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1488,13 +1512,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4821428571428572</v>
+        <v>0.5636363636363636</v>
       </c>
       <c r="C20">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D20">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1506,19 +1530,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K20">
-        <v>0.7676470588235295</v>
+        <v>0.8</v>
       </c>
       <c r="L20">
-        <v>261</v>
+        <v>28</v>
       </c>
       <c r="M20">
-        <v>261</v>
+        <v>28</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1530,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>79</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1538,38 +1562,38 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4155844155844156</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="C21">
+        <v>30</v>
+      </c>
+      <c r="D21">
+        <v>30</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>26</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K21">
+        <v>0.8</v>
+      </c>
+      <c r="L21">
         <v>32</v>
       </c>
-      <c r="D21">
+      <c r="M21">
         <v>32</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>45</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K21">
-        <v>0.76</v>
-      </c>
-      <c r="L21">
-        <v>38</v>
-      </c>
-      <c r="M21">
-        <v>38</v>
-      </c>
       <c r="N21">
         <v>1</v>
       </c>
@@ -1580,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1588,13 +1612,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4</v>
+        <v>0.52</v>
       </c>
       <c r="C22">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D22">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1606,19 +1630,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K22">
-        <v>0.75</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="L22">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M22">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1630,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1638,13 +1662,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3293650793650794</v>
+        <v>0.4375</v>
       </c>
       <c r="C23">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="D23">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1656,19 +1680,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>169</v>
+        <v>45</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K23">
-        <v>0.7405857740585774</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L23">
-        <v>177</v>
+        <v>39</v>
       </c>
       <c r="M23">
-        <v>177</v>
+        <v>39</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1680,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1688,13 +1712,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.193029490616622</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="C24">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="D24">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1706,19 +1730,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>301</v>
+        <v>51</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K24">
-        <v>0.7254237288135593</v>
+        <v>0.7529411764705882</v>
       </c>
       <c r="L24">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="M24">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1730,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1738,142 +1762,238 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1533333333333333</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C25">
+        <v>33</v>
+      </c>
+      <c r="D25">
+        <v>33</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>44</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K25">
+        <v>0.7489539748953975</v>
+      </c>
+      <c r="L25">
+        <v>179</v>
+      </c>
+      <c r="M25">
+        <v>179</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C26">
+        <v>91</v>
+      </c>
+      <c r="D26">
+        <v>91</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>161</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K26">
+        <v>0.74</v>
+      </c>
+      <c r="L26">
+        <v>37</v>
+      </c>
+      <c r="M26">
+        <v>37</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>0.2412868632707775</v>
+      </c>
+      <c r="C27">
+        <v>90</v>
+      </c>
+      <c r="D27">
+        <v>90</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>283</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K27">
+        <v>0.7303370786516854</v>
+      </c>
+      <c r="L27">
+        <v>65</v>
+      </c>
+      <c r="M27">
+        <v>65</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>0.14</v>
+      </c>
+      <c r="C28">
+        <v>42</v>
+      </c>
+      <c r="D28">
+        <v>42</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>258</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K28">
+        <v>0.7111111111111111</v>
+      </c>
+      <c r="L28">
+        <v>32</v>
+      </c>
+      <c r="M28">
+        <v>32</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>0.01096774193548387</v>
+      </c>
+      <c r="C29">
+        <v>34</v>
+      </c>
+      <c r="D29">
+        <v>41</v>
+      </c>
+      <c r="E29">
+        <v>0.17</v>
+      </c>
+      <c r="F29">
+        <v>0.83</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>3066</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K29">
+        <v>0.7076923076923077</v>
+      </c>
+      <c r="L29">
         <v>46</v>
       </c>
-      <c r="D25">
+      <c r="M29">
         <v>46</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>254</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K25">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="L25">
-        <v>25</v>
-      </c>
-      <c r="M25">
-        <v>25</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K26">
-        <v>0.7078651685393258</v>
-      </c>
-      <c r="L26">
-        <v>63</v>
-      </c>
-      <c r="M26">
-        <v>63</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K27">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="L27">
-        <v>45</v>
-      </c>
-      <c r="M27">
-        <v>45</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K28">
-        <v>0.6914893617021277</v>
-      </c>
-      <c r="L28">
-        <v>65</v>
-      </c>
-      <c r="M28">
-        <v>65</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K29">
-        <v>0.65</v>
-      </c>
-      <c r="L29">
-        <v>26</v>
-      </c>
-      <c r="M29">
-        <v>26</v>
-      </c>
       <c r="N29">
         <v>1</v>
       </c>
@@ -1884,21 +2004,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K30">
-        <v>0.6470588235294118</v>
+        <v>0.7074829931972789</v>
       </c>
       <c r="L30">
-        <v>33</v>
+        <v>208</v>
       </c>
       <c r="M30">
-        <v>33</v>
+        <v>209</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1907,24 +2027,24 @@
         <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>18</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K31">
-        <v>0.6142857142857143</v>
+        <v>0.6914893617021277</v>
       </c>
       <c r="L31">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="M31">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1936,21 +2056,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K32">
-        <v>0.5616438356164384</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L32">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M32">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1962,47 +2082,47 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K33">
-        <v>0.5555555555555556</v>
+        <v>0.609375</v>
       </c>
       <c r="L33">
+        <v>39</v>
+      </c>
+      <c r="M33">
+        <v>39</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
         <v>25</v>
-      </c>
-      <c r="M33">
-        <v>25</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>20</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K34">
-        <v>0.5128205128205128</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="L34">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="M34">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2014,21 +2134,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K35">
-        <v>0.4918032786885246</v>
+        <v>0.547945205479452</v>
       </c>
       <c r="L35">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M35">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2040,21 +2160,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K36">
-        <v>0.4385964912280702</v>
+        <v>0.5409836065573771</v>
       </c>
       <c r="L36">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="M36">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2066,7 +2186,111 @@
         <v>0</v>
       </c>
       <c r="Q36">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K37">
+        <v>0.5128205128205128</v>
+      </c>
+      <c r="L37">
+        <v>40</v>
+      </c>
+      <c r="M37">
+        <v>40</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K38">
+        <v>0.4576271186440678</v>
+      </c>
+      <c r="L38">
+        <v>27</v>
+      </c>
+      <c r="M38">
+        <v>27</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
         <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K39">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="L39">
+        <v>30</v>
+      </c>
+      <c r="M39">
+        <v>31</v>
+      </c>
+      <c r="N39">
+        <v>0.97</v>
+      </c>
+      <c r="O39">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K40">
+        <v>0.2258064516129032</v>
+      </c>
+      <c r="L40">
+        <v>28</v>
+      </c>
+      <c r="M40">
+        <v>28</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
